--- a/pilot.xlsx
+++ b/pilot.xlsx
@@ -1,26 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kbcgroup.sharepoint.com/sites/253738/Sdilene dokumenty/Prezentace_a_školení/2024/sq_skupinka/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="147" documentId="11_6B30950F8E61A5FCC329071835688581F010805B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4924EF77-C023-42FF-852B-1E155A052DBA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="pop_est_params" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>mean_est_n</t>
+  </si>
+  <si>
+    <t>var_pop</t>
+  </si>
+  <si>
+    <t>mean_pop</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>(y-mean_pop)^2</t>
+  </si>
+  <si>
+    <t>(y-mean_est_n)^2</t>
+  </si>
+  <si>
+    <t>var_est_n_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * doplnit velikost samplu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +80,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,14 +141,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Procenta" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +169,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +437,1659 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="247" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f ca="1">RANDBETWEEN(150,210)</f>
+        <v>178</v>
+      </c>
+      <c r="D3" s="2">
+        <f ca="1">(C3-$H$3)^2</f>
+        <v>15.840399999999919</v>
+      </c>
+      <c r="E3" s="1">
+        <f ca="1">(C3-$H$4)^2</f>
+        <v>1.6109467455621413</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <f ca="1">AVERAGE(C3:C102)</f>
+        <v>181.98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f ca="1">RANDBETWEEN(150,210)</f>
+        <v>152</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D67" ca="1" si="0">(C4-$H$3)^2</f>
+        <v>898.8003999999994</v>
+      </c>
+      <c r="E4" s="1">
+        <f ca="1">(C4-$H$4)^2</f>
+        <v>743.61094674556239</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <f ca="1">SUM(C3:C28)/COUNT(C3:C28)</f>
+        <v>179.26923076923077</v>
+      </c>
+      <c r="I4" s="4">
+        <f ca="1">1-H4/H3</f>
+        <v>1.4895973352946568E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f ca="1">RANDBETWEEN(150,210)</f>
+        <v>176</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.760399999999876</v>
+      </c>
+      <c r="E5" s="1">
+        <f ca="1">(C5-$H$4)^2</f>
+        <v>10.687869822485236</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <f ca="1">RANDBETWEEN(150,210)</f>
+        <v>159</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>528.08039999999949</v>
+      </c>
+      <c r="E6" s="1">
+        <f ca="1">(C6-$H$4)^2</f>
+        <v>410.84171597633156</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <f ca="1">RANDBETWEEN(150,210)</f>
+        <v>191</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>81.360400000000183</v>
+      </c>
+      <c r="E7" s="1">
+        <f ca="1">(C7-$H$4)^2</f>
+        <v>137.61094674556202</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f ca="1">SUM(D3:D102)/COUNT(D3:D102)</f>
+        <v>307.0995999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <f ca="1">_xlfn.VAR.P(C3:C102)</f>
+        <v>307.0995999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <f ca="1">RANDBETWEEN(150,210)</f>
+        <v>177</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.800399999999897</v>
+      </c>
+      <c r="E8" s="1">
+        <f ca="1">(C8-$H$4)^2</f>
+        <v>5.1494082840236883</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f ca="1">SUM(E3:E28)/(COUNT(E3:E28)-1)</f>
+        <v>359.8846153846153</v>
+      </c>
+      <c r="I8" s="1">
+        <f ca="1">_xlfn.VAR.S(C3:C28)</f>
+        <v>359.88461538461502</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:C67" ca="1" si="1">RANDBETWEEN(150,210)</f>
+        <v>178</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.840399999999919</v>
+      </c>
+      <c r="E9" s="1">
+        <f ca="1">(C9-$H$4)^2</f>
+        <v>1.6109467455621413</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>626.00040000000047</v>
+      </c>
+      <c r="E10" s="1">
+        <f ca="1">(C10-$H$4)^2</f>
+        <v>768.99556213017729</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>120.56039999999977</v>
+      </c>
+      <c r="E11" s="1">
+        <f ca="1">(C11-$H$4)^2</f>
+        <v>68.380177514792976</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>361.7604000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <f ca="1">(C12-$H$4)^2</f>
+        <v>472.22633136094657</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>196.5604000000003</v>
+      </c>
+      <c r="E13" s="1">
+        <f ca="1">(C13-$H$4)^2</f>
+        <v>279.91863905325431</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>81.360400000000183</v>
+      </c>
+      <c r="E14" s="1">
+        <f ca="1">(C14-$H$4)^2</f>
+        <v>137.61094674556202</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0000000000040925E-4</v>
+      </c>
+      <c r="E15" s="1">
+        <f ca="1">(C15-$H$4)^2</f>
+        <v>7.4571005917159523</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>181</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96039999999997994</v>
+      </c>
+      <c r="E16" s="1">
+        <f ca="1">(C16-$H$4)^2</f>
+        <v>2.9955621301774995</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <f ca="1">RANDBETWEEN(150,210)</f>
+        <v>204</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>484.88040000000046</v>
+      </c>
+      <c r="E17" s="1">
+        <f ca="1">(C17-$H$4)^2</f>
+        <v>611.61094674556193</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>441.84040000000044</v>
+      </c>
+      <c r="E18" s="1">
+        <f ca="1">(C18-$H$4)^2</f>
+        <v>563.14940828402348</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>121.44040000000022</v>
+      </c>
+      <c r="E19" s="1">
+        <f ca="1">(C19-$H$4)^2</f>
+        <v>188.53402366863892</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <f ca="1">RANDBETWEEN(150,210)</f>
+        <v>209</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>730.08040000000051</v>
+      </c>
+      <c r="E20" s="1">
+        <f ca="1">(C20-$H$4)^2</f>
+        <v>883.9186390532542</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <f ca="1">RANDBETWEEN(150,210)</f>
+        <v>153</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>839.84039999999936</v>
+      </c>
+      <c r="E21" s="1">
+        <f ca="1">(C21-$H$4)^2</f>
+        <v>690.07248520710084</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>399.2003999999996</v>
+      </c>
+      <c r="E22" s="1">
+        <f ca="1">(C22-$H$4)^2</f>
+        <v>298.22633136094692</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>959.76039999999932</v>
+      </c>
+      <c r="E23" s="1">
+        <f ca="1">(C23-$H$4)^2</f>
+        <v>799.14940828402393</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>255.36039999999969</v>
+      </c>
+      <c r="E24" s="1">
+        <f ca="1">(C24-$H$4)^2</f>
+        <v>176.0724852071007</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1204000000000622</v>
+      </c>
+      <c r="E25" s="1">
+        <f ca="1">(C25-$H$4)^2</f>
+        <v>32.841715976331308</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>898.8003999999994</v>
+      </c>
+      <c r="E26" s="1">
+        <f ca="1">(C26-$H$4)^2</f>
+        <v>743.61094674556239</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>100.4004000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <f ca="1">(C27-$H$4)^2</f>
+        <v>162.07248520710047</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>959.76039999999932</v>
+      </c>
+      <c r="E28" s="1">
+        <f ca="1">(C28-$H$4)^2</f>
+        <v>799.14940828402393</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="0"/>
+        <v>782.88039999999944</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="0"/>
+        <v>195.44039999999973</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="0"/>
+        <v>143.52039999999977</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="0"/>
+        <v>144.48040000000026</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="0"/>
+        <v>323.28039999999964</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="0"/>
+        <v>361.7604000000004</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="0"/>
+        <v>727.9203999999994</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="0"/>
+        <v>169.52040000000028</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.160400000000081</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8803999999999395</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.760399999999876</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="0"/>
+        <v>48.720399999999856</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="0"/>
+        <v>576.9604000000005</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="0"/>
+        <v>1022.7203999999994</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="0"/>
+        <v>64.320400000000163</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="0"/>
+        <v>529.92040000000043</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="0"/>
+        <v>143.52039999999977</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9203999999999595</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="0"/>
+        <v>63.680399999999835</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="0"/>
+        <v>255.36039999999969</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0404000000000209</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="0"/>
+        <v>727.9203999999994</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.760399999999876</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.800399999999897</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="0"/>
+        <v>196.5604000000003</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="0"/>
+        <v>195.44039999999973</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="0"/>
+        <v>324.72040000000038</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="0"/>
+        <v>168.48039999999975</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="0"/>
+        <v>626.00040000000047</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="0"/>
+        <v>81.360400000000183</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.760399999999876</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="0"/>
+        <v>100.4004000000002</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="0"/>
+        <v>143.52039999999977</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="0"/>
+        <v>529.92040000000043</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0804000000000418</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="1"/>
+        <v>178</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.840399999999919</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="0"/>
+        <v>576.9604000000005</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="0"/>
+        <v>143.52039999999977</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="0"/>
+        <v>484.88040000000046</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C102" ca="1" si="2">RANDBETWEEN(150,210)</f>
+        <v>208</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D102" ca="1" si="3">(C68-$H$3)^2</f>
+        <v>677.04040000000055</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="3"/>
+        <v>730.08040000000051</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="3"/>
+        <v>36.240400000000122</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="3"/>
+        <v>195.44039999999973</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="3"/>
+        <v>324.72040000000038</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="3"/>
+        <v>484.88040000000046</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="3"/>
+        <v>324.72040000000038</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0000000000040925E-4</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="3"/>
+        <v>730.08040000000051</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="3"/>
+        <v>361.7604000000004</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0404000000000209</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="3"/>
+        <v>143.52039999999977</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="3"/>
+        <v>576.9604000000005</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="3"/>
+        <v>440.16039999999958</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="3"/>
+        <v>484.88040000000046</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="3"/>
+        <v>49.280400000000142</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="3"/>
+        <v>64.320400000000163</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="3"/>
+        <v>324.72040000000038</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="3"/>
+        <v>528.08039999999949</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="3"/>
+        <v>575.04039999999952</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="3"/>
+        <v>224.40039999999971</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>87</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="3"/>
+        <v>100.4004000000002</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>88</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="3"/>
+        <v>323.28039999999964</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="3"/>
+        <v>224.40039999999971</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="3"/>
+        <v>441.84040000000044</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="3"/>
+        <v>256.64040000000034</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="3"/>
+        <v>323.28039999999964</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="3"/>
+        <v>959.76039999999932</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="3"/>
+        <v>730.08040000000051</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="3"/>
+        <v>399.2003999999996</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="3"/>
+        <v>99.600399999999794</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="3"/>
+        <v>225.60040000000032</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0000000000040925E-4</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>99</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="3"/>
+        <v>120.56039999999977</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ca="1" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="D102">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.0804000000000418</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -577,15 +2330,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="3eff1f43-fb46-4d20-bca2-1e8d4a5d2618">
@@ -596,14 +2340,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDAAAA94-445F-425E-8574-3D3C4F561B61}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDAAAA94-445F-425E-8574-3D3C4F561B61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3eff1f43-fb46-4d20-bca2-1e8d4a5d2618"/>
+    <ds:schemaRef ds:uri="eeeb688d-4ceb-4072-9477-443761d31d1f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABAFD100-E2C3-45BD-89BD-17C83A17036F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E857B2-4671-4EF0-BF89-3BEDECB4BF61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3eff1f43-fb46-4d20-bca2-1e8d4a5d2618"/>
+    <ds:schemaRef ds:uri="eeeb688d-4ceb-4072-9477-443761d31d1f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E857B2-4671-4EF0-BF89-3BEDECB4BF61}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABAFD100-E2C3-45BD-89BD-17C83A17036F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>